--- a/Lab_web/material/論文.xlsx
+++ b/Lab_web/material/論文.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32DA640-B93F-468B-A687-13E921C3299E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C554F19B-AA18-4D91-A659-ADC9EDC05747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="225">
   <si>
-    <t>編號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>論文名稱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -808,6 +804,9 @@
   </si>
   <si>
     <t>張凌榕</t>
+  </si>
+  <si>
+    <t>編號</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D115"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1301,21 +1300,21 @@
     <col min="4" max="4" width="18.54296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="42">
+    </row>
+    <row r="2" spans="1:4" ht="42">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1323,16 +1322,13 @@
         <v>1998</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1340,16 +1336,13 @@
         <v>1998</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1357,16 +1350,13 @@
         <v>1999</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1374,16 +1364,13 @@
         <v>2000</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1391,16 +1378,13 @@
         <v>2000</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1408,16 +1392,13 @@
         <v>2000</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1425,16 +1406,13 @@
         <v>2001</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="63">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1442,16 +1420,13 @@
         <v>2001</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="63">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1459,16 +1434,13 @@
         <v>2001</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1476,16 +1448,13 @@
         <v>2001</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1493,16 +1462,13 @@
         <v>2001</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1510,16 +1476,13 @@
         <v>2001</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1527,16 +1490,13 @@
         <v>2002</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1544,16 +1504,13 @@
         <v>2002</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1561,16 +1518,13 @@
         <v>2002</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1578,16 +1532,13 @@
         <v>2003</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="42">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1595,16 +1546,13 @@
         <v>2003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="42">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1612,16 +1560,13 @@
         <v>2003</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="63">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1629,16 +1574,13 @@
         <v>2003</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1646,16 +1588,13 @@
         <v>2003</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1663,16 +1602,13 @@
         <v>2003</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -1680,16 +1616,13 @@
         <v>2003</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1697,16 +1630,13 @@
         <v>2004</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -1714,16 +1644,13 @@
         <v>2004</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1731,16 +1658,13 @@
         <v>2004</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="42">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -1748,16 +1672,13 @@
         <v>2004</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="42">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1765,16 +1686,13 @@
         <v>2004</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="63">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -1782,16 +1700,13 @@
         <v>2004</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="42">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1799,16 +1714,13 @@
         <v>2005</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="42">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -1816,16 +1728,13 @@
         <v>2005</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="63">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1833,16 +1742,13 @@
         <v>2005</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="42">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -1850,16 +1756,13 @@
         <v>2005</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="42">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1867,16 +1770,13 @@
         <v>2005</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="42">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -1884,16 +1784,13 @@
         <v>2005</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="42">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1901,16 +1798,13 @@
         <v>2005</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="42">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -1918,16 +1812,13 @@
         <v>2006</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="42">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="42">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1935,16 +1826,13 @@
         <v>2006</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="42">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -1952,13 +1840,13 @@
         <v>2006</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="42">
+    </row>
+    <row r="40" spans="1:4" ht="42">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1966,13 +1854,13 @@
         <v>2007</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="42">
+    </row>
+    <row r="41" spans="1:4" ht="42">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -1980,13 +1868,13 @@
         <v>2007</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="42">
+    </row>
+    <row r="42" spans="1:4" ht="42">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1994,13 +1882,13 @@
         <v>2007</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="63">
+    </row>
+    <row r="43" spans="1:4" ht="63">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -2008,13 +1896,13 @@
         <v>2007</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="42">
+    </row>
+    <row r="44" spans="1:4" ht="42">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2022,13 +1910,13 @@
         <v>2007</v>
       </c>
       <c r="C44" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="63">
+    </row>
+    <row r="45" spans="1:4" ht="63">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -2036,13 +1924,13 @@
         <v>2007</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="63">
+    </row>
+    <row r="46" spans="1:4" ht="63">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2050,13 +1938,13 @@
         <v>2007</v>
       </c>
       <c r="C46" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="21">
+    </row>
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -2064,13 +1952,13 @@
         <v>2008</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="42">
+    </row>
+    <row r="48" spans="1:4" ht="42">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2078,10 +1966,10 @@
         <v>2008</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="42">
@@ -2092,10 +1980,10 @@
         <v>2008</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="63">
@@ -2106,10 +1994,10 @@
         <v>2008</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="42">
@@ -2120,10 +2008,10 @@
         <v>2008</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="42">
@@ -2134,10 +2022,10 @@
         <v>2008</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="63">
@@ -2148,10 +2036,10 @@
         <v>2008</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="42">
@@ -2162,10 +2050,10 @@
         <v>2008</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="42">
@@ -2176,10 +2064,10 @@
         <v>2008</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="42">
@@ -2190,10 +2078,10 @@
         <v>2008</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="63">
@@ -2204,10 +2092,10 @@
         <v>2009</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="42">
@@ -2218,10 +2106,10 @@
         <v>2009</v>
       </c>
       <c r="C58" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="42">
@@ -2232,10 +2120,10 @@
         <v>2009</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="42">
@@ -2246,10 +2134,10 @@
         <v>2009</v>
       </c>
       <c r="C60" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="42">
@@ -2260,10 +2148,10 @@
         <v>2009</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="42">
@@ -2274,10 +2162,10 @@
         <v>2009</v>
       </c>
       <c r="C62" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="63">
@@ -2288,10 +2176,10 @@
         <v>2010</v>
       </c>
       <c r="C63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="42">
@@ -2302,10 +2190,10 @@
         <v>2010</v>
       </c>
       <c r="C64" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="42">
@@ -2316,10 +2204,10 @@
         <v>2010</v>
       </c>
       <c r="C65" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="63">
@@ -2330,10 +2218,10 @@
         <v>2010</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="63">
@@ -2344,10 +2232,10 @@
         <v>2011</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="63">
@@ -2358,10 +2246,10 @@
         <v>2011</v>
       </c>
       <c r="C68" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="42">
@@ -2372,10 +2260,10 @@
         <v>2011</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="42">
@@ -2386,10 +2274,10 @@
         <v>2011</v>
       </c>
       <c r="C70" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="63">
@@ -2400,10 +2288,10 @@
         <v>2011</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="42">
@@ -2414,10 +2302,10 @@
         <v>2011</v>
       </c>
       <c r="C72" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="42">
@@ -2428,10 +2316,10 @@
         <v>2011</v>
       </c>
       <c r="C73" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="42">
@@ -2442,10 +2330,10 @@
         <v>2011</v>
       </c>
       <c r="C74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="63">
@@ -2456,10 +2344,10 @@
         <v>2011</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="42">
@@ -2470,10 +2358,10 @@
         <v>2011</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="42">
@@ -2484,10 +2372,10 @@
         <v>2012</v>
       </c>
       <c r="C77" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>148</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="63">
@@ -2498,10 +2386,10 @@
         <v>2012</v>
       </c>
       <c r="C78" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="63">
@@ -2512,10 +2400,10 @@
         <v>2012</v>
       </c>
       <c r="C79" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="42">
@@ -2526,10 +2414,10 @@
         <v>2012</v>
       </c>
       <c r="C80" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="63">
@@ -2540,10 +2428,10 @@
         <v>2012</v>
       </c>
       <c r="C81" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="42">
@@ -2554,10 +2442,10 @@
         <v>2013</v>
       </c>
       <c r="C82" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="42">
@@ -2568,10 +2456,10 @@
         <v>2013</v>
       </c>
       <c r="C83" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="42">
@@ -2582,10 +2470,10 @@
         <v>2013</v>
       </c>
       <c r="C84" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="42">
@@ -2596,10 +2484,10 @@
         <v>2013</v>
       </c>
       <c r="C85" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="42">
@@ -2610,10 +2498,10 @@
         <v>2013</v>
       </c>
       <c r="C86" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="42">
@@ -2624,10 +2512,10 @@
         <v>2014</v>
       </c>
       <c r="C87" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="42">
@@ -2638,10 +2526,10 @@
         <v>2014</v>
       </c>
       <c r="C88" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="42">
@@ -2652,10 +2540,10 @@
         <v>2014</v>
       </c>
       <c r="C89" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="42">
@@ -2666,10 +2554,10 @@
         <v>2014</v>
       </c>
       <c r="C90" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="42">
@@ -2680,10 +2568,10 @@
         <v>2014</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="63">
@@ -2694,10 +2582,10 @@
         <v>2015</v>
       </c>
       <c r="C92" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>175</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="42">
@@ -2708,10 +2596,10 @@
         <v>2015</v>
       </c>
       <c r="C93" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="63">
@@ -2722,10 +2610,10 @@
         <v>2015</v>
       </c>
       <c r="C94" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>179</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="42">
@@ -2736,10 +2624,10 @@
         <v>2015</v>
       </c>
       <c r="C95" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="63">
@@ -2750,10 +2638,10 @@
         <v>2015</v>
       </c>
       <c r="C96" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="20" t="s">
         <v>183</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="42">
@@ -2764,10 +2652,10 @@
         <v>2015</v>
       </c>
       <c r="C97" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="42">
@@ -2778,10 +2666,10 @@
         <v>2015</v>
       </c>
       <c r="C98" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="42">
@@ -2792,10 +2680,10 @@
         <v>2015</v>
       </c>
       <c r="C99" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="42">
@@ -2806,10 +2694,10 @@
         <v>2016</v>
       </c>
       <c r="C100" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="20" t="s">
         <v>191</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="42">
@@ -2820,10 +2708,10 @@
         <v>2016</v>
       </c>
       <c r="C101" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="D101" s="19" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="42">
@@ -2834,10 +2722,10 @@
         <v>2016</v>
       </c>
       <c r="C102" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="42">
@@ -2848,10 +2736,10 @@
         <v>2017</v>
       </c>
       <c r="C103" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="D103" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="42">
@@ -2862,10 +2750,10 @@
         <v>2017</v>
       </c>
       <c r="C104" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="42">
@@ -2876,10 +2764,10 @@
         <v>2017</v>
       </c>
       <c r="C105" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="42">
@@ -2890,10 +2778,10 @@
         <v>2017</v>
       </c>
       <c r="C106" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="42">
@@ -2904,38 +2792,38 @@
         <v>2017</v>
       </c>
       <c r="C107" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="42">
       <c r="A108" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B108" s="23">
         <v>2017</v>
       </c>
       <c r="C108" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="42">
       <c r="A109" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109" s="18">
         <v>2017</v>
       </c>
       <c r="C109" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="42">
@@ -2946,10 +2834,10 @@
         <v>2018</v>
       </c>
       <c r="C110" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="63">
@@ -2960,10 +2848,10 @@
         <v>2018</v>
       </c>
       <c r="C111" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="42">
@@ -2974,10 +2862,10 @@
         <v>2018</v>
       </c>
       <c r="C112" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="63">
@@ -2988,10 +2876,10 @@
         <v>2019</v>
       </c>
       <c r="C113" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D113" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="42">
@@ -3002,10 +2890,10 @@
         <v>2019</v>
       </c>
       <c r="C114" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="42">
@@ -3016,10 +2904,10 @@
         <v>2019</v>
       </c>
       <c r="C115" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
